--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIEL\Desktop\wrestling_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A667203-67EB-41E0-9436-A0AC6C783FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207A433-E807-450B-BCA6-0BEA9E83930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="337">
   <si>
     <t>tournament_name</t>
   </si>
@@ -535,9 +535,6 @@
     <t>https://uww.org/event/european-championships-6/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/pan-american-championships-18/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/pan-american-championships-6/results</t>
   </si>
   <si>
@@ -1015,25 +1012,10 @@
     <t>https://uww.org/event/xii-south-american-games/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/world-championships-78/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/world-championships-63/results</t>
   </si>
   <si>
-    <t>Baku, Azerbaijan</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-18/results</t>
-  </si>
-  <si>
-    <t>World Cup WW</t>
-  </si>
-  <si>
     <t>Coralville, United States</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-ww/results</t>
   </si>
   <si>
     <t>World Cup FS</t>
@@ -1422,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1501,7 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4">
@@ -2301,7 +2283,7 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G38">
@@ -2324,7 +2306,7 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>125</v>
       </c>
       <c r="G39">
@@ -2776,13 +2758,13 @@
         <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
         <v>171</v>
@@ -2793,10 +2775,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -2808,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G60">
         <v>2019</v>
@@ -2816,22 +2798,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G61">
         <v>2019</v>
@@ -2839,22 +2821,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G62">
         <v>2019</v>
@@ -2862,16 +2844,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
-        <v>179</v>
-      </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
         <v>25</v>
@@ -2885,22 +2867,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G64">
         <v>2019</v>
@@ -2908,10 +2890,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -2931,22 +2913,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G66">
         <v>2019</v>
@@ -2954,22 +2936,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G67">
         <v>2019</v>
@@ -2977,22 +2959,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G68">
         <v>2019</v>
@@ -3000,19 +2982,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
         <v>190</v>
@@ -3023,10 +3005,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -3035,10 +3017,10 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G70">
         <v>2019</v>
@@ -3046,22 +3028,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G71">
         <v>2019</v>
@@ -3069,22 +3051,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G72">
         <v>2019</v>
@@ -3092,22 +3074,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G73">
         <v>2019</v>
@@ -3115,22 +3097,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
         <v>198</v>
       </c>
-      <c r="B74" t="s">
-        <v>199</v>
-      </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E74" t="s">
         <v>138</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G74">
         <v>2019</v>
@@ -3141,19 +3123,19 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G75">
         <v>2019</v>
@@ -3161,22 +3143,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G76">
         <v>2019</v>
@@ -3184,22 +3166,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G77">
         <v>2019</v>
@@ -3207,22 +3189,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G78">
         <v>2019</v>
@@ -3233,16 +3215,16 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s">
         <v>210</v>
@@ -3253,22 +3235,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G80">
         <v>2019</v>
@@ -3276,19 +3258,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
         <v>214</v>
@@ -3299,22 +3281,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
         <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G82">
         <v>2019</v>
@@ -3322,22 +3304,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G83">
         <v>2019</v>
@@ -3345,22 +3327,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G84">
         <v>2019</v>
@@ -3368,22 +3350,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G85">
         <v>2019</v>
@@ -3391,13 +3373,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3406,30 +3388,30 @@
         <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G86">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E87" t="s">
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G87">
         <v>2020</v>
@@ -3437,16 +3419,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
@@ -3466,13 +3448,13 @@
         <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
         <v>229</v>
@@ -3483,19 +3465,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
         <v>230</v>
@@ -3506,10 +3488,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -3521,7 +3503,7 @@
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G91">
         <v>2020</v>
@@ -3529,13 +3511,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -3544,7 +3526,7 @@
         <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G92">
         <v>2020</v>
@@ -3552,13 +3534,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -3567,7 +3549,7 @@
         <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G93">
         <v>2020</v>
@@ -3575,42 +3557,42 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
         <v>240</v>
       </c>
       <c r="G94">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F95" t="s">
         <v>241</v>
@@ -3621,13 +3603,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -3636,7 +3618,7 @@
         <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G96">
         <v>2021</v>
@@ -3644,13 +3626,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3659,7 +3641,7 @@
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G97">
         <v>2021</v>
@@ -3667,13 +3649,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -3682,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G98">
         <v>2021</v>
@@ -3690,13 +3672,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" t="s">
         <v>247</v>
       </c>
-      <c r="B99" t="s">
-        <v>248</v>
-      </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -3713,10 +3695,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -3742,13 +3724,13 @@
         <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F101" t="s">
         <v>251</v>
@@ -3759,22 +3741,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G102">
         <v>2021</v>
@@ -3782,16 +3764,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
         <v>25</v>
@@ -3805,16 +3787,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
         <v>25</v>
@@ -3828,13 +3810,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -3851,22 +3833,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G106">
         <v>2021</v>
@@ -3874,22 +3856,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G107">
         <v>2021</v>
@@ -3900,19 +3882,19 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G108">
         <v>2021</v>
@@ -3920,22 +3902,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F109" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G109">
         <v>2021</v>
@@ -3943,19 +3925,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E110" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F110" t="s">
         <v>266</v>
@@ -3966,22 +3948,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
         <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G111">
         <v>2021</v>
@@ -3989,22 +3971,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G112">
         <v>2021</v>
@@ -4015,16 +3997,16 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="E113" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F113" t="s">
         <v>272</v>
@@ -4035,19 +4017,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
         <v>273</v>
@@ -4058,22 +4040,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F115" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G115">
         <v>2021</v>
@@ -4081,22 +4063,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G116">
         <v>2021</v>
@@ -4104,22 +4086,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
         <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="E117" t="s">
         <v>138</v>
       </c>
       <c r="F117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G117">
         <v>2021</v>
@@ -4127,22 +4109,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D118" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G118">
         <v>2021</v>
@@ -4153,19 +4135,19 @@
         <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
         <v>92</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G119">
         <v>2021</v>
@@ -4176,16 +4158,16 @@
         <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s">
         <v>285</v>
@@ -4199,16 +4181,16 @@
         <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C121" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E121" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
         <v>286</v>
@@ -4222,19 +4204,19 @@
         <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="E122" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="F122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G122">
         <v>2021</v>
@@ -4242,22 +4224,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="F123" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G123">
         <v>2021</v>
@@ -4265,45 +4247,45 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>71</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>294</v>
+        <v>48</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E125" t="s">
         <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G125">
         <v>2022</v>
@@ -4314,16 +4296,16 @@
         <v>48</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>143</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F126" t="s">
         <v>297</v>
@@ -4340,13 +4322,13 @@
         <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
         <v>298</v>
@@ -4357,10 +4339,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C128" t="s">
         <v>23</v>
@@ -4380,10 +4362,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="C129" t="s">
         <v>23</v>
@@ -4395,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G129">
         <v>2022</v>
@@ -4403,22 +4385,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C130" t="s">
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="E130" t="s">
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G130">
         <v>2022</v>
@@ -4426,22 +4408,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
         <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G131">
         <v>2022</v>
@@ -4449,16 +4431,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E132" t="s">
         <v>25</v>
@@ -4472,22 +4454,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="E133" t="s">
         <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G133">
         <v>2022</v>
@@ -4495,16 +4477,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
         <v>25</v>
@@ -4518,16 +4500,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E135" t="s">
         <v>25</v>
@@ -4541,16 +4523,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C136" t="s">
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E136" t="s">
         <v>25</v>
@@ -4564,22 +4546,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="C137" t="s">
         <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G137">
         <v>2022</v>
@@ -4587,16 +4569,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B138" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="C138" t="s">
         <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="E138" t="s">
         <v>25</v>
@@ -4610,22 +4592,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
         <v>25</v>
       </c>
       <c r="F139" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G139">
         <v>2022</v>
@@ -4633,16 +4615,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E140" t="s">
         <v>25</v>
@@ -4656,16 +4638,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
         <v>25</v>
@@ -4679,22 +4661,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D142" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G142">
         <v>2022</v>
@@ -4702,19 +4684,19 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E143" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F143" t="s">
         <v>323</v>
@@ -4728,16 +4710,16 @@
         <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="C144" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D144" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="F144" t="s">
         <v>324</v>
@@ -4751,16 +4733,16 @@
         <v>92</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C145" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D145" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F145" t="s">
         <v>325</v>
@@ -4774,16 +4756,16 @@
         <v>92</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="C146" t="s">
         <v>92</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F146" t="s">
         <v>326</v>
@@ -4794,22 +4776,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="C147" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D147" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G147">
         <v>2022</v>
@@ -4817,16 +4799,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>328</v>
+        <v>92</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E148" t="s">
         <v>25</v>
@@ -4840,22 +4822,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>332</v>
       </c>
       <c r="B149" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="C149" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G149">
         <v>2022</v>
@@ -4863,116 +4845,24 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="C150" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
         <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G150">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>38</v>
-      </c>
-      <c r="B151" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" t="s">
-        <v>38</v>
-      </c>
-      <c r="D151" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" t="s">
-        <v>334</v>
-      </c>
-      <c r="G151">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>335</v>
-      </c>
-      <c r="B152" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" t="s">
-        <v>38</v>
-      </c>
-      <c r="D152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" t="s">
-        <v>33</v>
-      </c>
-      <c r="F152" t="s">
-        <v>337</v>
-      </c>
-      <c r="G152">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>338</v>
-      </c>
-      <c r="B153" t="s">
-        <v>336</v>
-      </c>
-      <c r="C153" t="s">
-        <v>38</v>
-      </c>
-      <c r="D153" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" t="s">
-        <v>339</v>
-      </c>
-      <c r="G153">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>340</v>
-      </c>
-      <c r="B154" t="s">
-        <v>341</v>
-      </c>
-      <c r="C154" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154" t="s">
-        <v>342</v>
-      </c>
-      <c r="G154">
         <v>2022</v>
       </c>
     </row>
@@ -4980,6 +4870,9 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{A82A4206-399B-4507-B716-C72E91C1C2F4}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{A1ED97B0-0B60-4F09-B1FF-9C9A4E18B04F}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{3C8F347D-CA9F-490C-8213-A81CB320AF61}"/>
+    <hyperlink ref="F39" r:id="rId4" xr:uid="{EF06FA33-6786-41D4-A6C2-DF10F263CAA4}"/>
+    <hyperlink ref="F38" r:id="rId5" xr:uid="{EEBCDC13-F747-4DE9-B9DD-178A46626C97}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIEL\Desktop\wrestling_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207A433-E807-450B-BCA6-0BEA9E83930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9D20A-ED80-46AC-B4C8-B7A424F26B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="267">
   <si>
     <t>tournament_name</t>
   </si>
@@ -136,24 +136,9 @@
     <t>https://uww.org/event/asian-championships-4/results</t>
   </si>
   <si>
-    <t>World Cup</t>
-  </si>
-  <si>
-    <t>Takasaki, Japan</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-0/results</t>
-  </si>
-  <si>
-    <t>Iowa City, United States</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
-    <t>https://uww.org/event/world-cup-7/results</t>
-  </si>
-  <si>
     <t>Commonwealth Games</t>
   </si>
   <si>
@@ -175,12 +160,6 @@
     <t>Championships</t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/european-championships-17/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/european-championships-3/results</t>
   </si>
   <si>
@@ -367,15 +346,6 @@
     <t>https://uww.org/event/asian-games/results</t>
   </si>
   <si>
-    <t>Astana, Kazakhstan</t>
-  </si>
-  <si>
-    <t>U17, U20, Seniors, Veterans</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-48/results</t>
-  </si>
-  <si>
     <t>Ziolkowski, Pytlasinski, Poland Open</t>
   </si>
   <si>
@@ -430,18 +400,6 @@
     <t>https://uww.org/event/veterans-world-championships-gr/results</t>
   </si>
   <si>
-    <t>Beach World Championships</t>
-  </si>
-  <si>
-    <t>Sarigerme, Turkiye</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/beach-world-championships/results</t>
-  </si>
-  <si>
     <t>Youth Olympic Games</t>
   </si>
   <si>
@@ -478,12 +436,6 @@
     <t>https://uww.org/event/grand-prix-zagreb-open-3/results</t>
   </si>
   <si>
-    <t>Hungarian Grand Prix - Polyák Imre Memorial</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/hungarian-grand-prix-polyak-imre-memorial/results</t>
-  </si>
-  <si>
     <t>Dan Kolov - Nikola Petrov</t>
   </si>
   <si>
@@ -499,12 +451,6 @@
     <t>https://uww.org/event/u23-senior-european-championships-1/results</t>
   </si>
   <si>
-    <t>Yakutsk, Russia</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-11/results</t>
-  </si>
-  <si>
     <t>U23 Senior Asian Championships</t>
   </si>
   <si>
@@ -517,51 +463,18 @@
     <t>https://uww.org/event/african-championships-1/results</t>
   </si>
   <si>
-    <t>Chaves Beach Wrestling World Series</t>
-  </si>
-  <si>
-    <t>Chaves, Portugal</t>
-  </si>
-  <si>
-    <t>Beach Wrestling World Series</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/chaves-beach-wrestling-world-series/results</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/european-championships-32/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/european-championships-6/results</t>
   </si>
   <si>
     <t>https://uww.org/event/pan-american-championships-6/results</t>
   </si>
   <si>
-    <t>Xi'An, China</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/asian-championships-7/results</t>
-  </si>
-  <si>
-    <t>Rio De Janeiro Beach Wrestling World Series</t>
-  </si>
-  <si>
-    <t>Rio De Janeiro, Brazil</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/rio-de-janeiro-beach-wrestling-world-series/results</t>
-  </si>
-  <si>
     <t>Sassari City Matteo Pellicone Memorial</t>
   </si>
   <si>
     <t>Sassari, Italy</t>
   </si>
   <si>
-    <t>https://uww.org/event/sassari-city-matteo-pellicone-memorial-6/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/sassari-city-matteo-pellicone-memorial-5/results</t>
   </si>
   <si>
@@ -580,21 +493,12 @@
     <t>https://uww.org/event/european-championships-8/results</t>
   </si>
   <si>
-    <t>European Games</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/european-games/results</t>
-  </si>
-  <si>
     <t>Chon Buri, Thailand</t>
   </si>
   <si>
     <t>https://uww.org/event/asian-championships-8/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/yasar-dogu-5/results</t>
-  </si>
-  <si>
     <t>Oleg Karavaev</t>
   </si>
   <si>
@@ -613,21 +517,9 @@
     <t>https://uww.org/event/pan-american-games/results</t>
   </si>
   <si>
-    <t>Odessa Beach Wrestling World Series</t>
-  </si>
-  <si>
-    <t>Odessa, Ukraine</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/odessa-beach-wrestling-world-series/results</t>
-  </si>
-  <si>
     <t>U17, U20</t>
   </si>
   <si>
-    <t>https://uww.org/event/world-championships-51/results</t>
-  </si>
-  <si>
     <t>Tallinn, Estonia</t>
   </si>
   <si>
@@ -640,45 +532,15 @@
     <t>https://uww.org/event/african-games/results</t>
   </si>
   <si>
-    <t>Zagreb Beach Wrestling World Series Final</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/zagreb-beach-wrestling-world-series-final/results</t>
-  </si>
-  <si>
-    <t>Nur-Sultan, Kazakhstan</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-36/results</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-38/results</t>
-  </si>
-  <si>
-    <t>Tokyo 2020 Test Event</t>
-  </si>
-  <si>
     <t>Tokyo, Japan</t>
   </si>
   <si>
-    <t>https://uww.org/event/tokyo-2020-test-event/results</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-37/results</t>
-  </si>
-  <si>
     <t>U23 Senior World Championships</t>
   </si>
   <si>
     <t>https://uww.org/event/u23-senior-world-championships/results</t>
   </si>
   <si>
-    <t>Narita, Japan</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-9/results</t>
-  </si>
-  <si>
     <t>Taichung, Chinese Taipei</t>
   </si>
   <si>
@@ -709,9 +571,6 @@
     <t>https://uww.org/event/european-championships-19/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/european-championships-39/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/asian-championships-13/results</t>
   </si>
   <si>
@@ -730,18 +589,9 @@
     <t>https://uww.org/event/pan-american-og-qualifier/results</t>
   </si>
   <si>
-    <t>Individual World Cup</t>
-  </si>
-  <si>
     <t>Belgrade, Serbia</t>
   </si>
   <si>
-    <t>Cup</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/individual-world-cup/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/grand-prix-zagreb-open-5/results</t>
   </si>
   <si>
@@ -775,9 +625,6 @@
     <t>https://uww.org/event/european-championships-23/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/european-championships-41/results</t>
-  </si>
-  <si>
     <t>World OG Qualifier</t>
   </si>
   <si>
@@ -811,15 +658,6 @@
     <t>https://uww.org/event/european-championships-26/results</t>
   </si>
   <si>
-    <t>Saint-Laurent-Du-Var Beach Wrestling World Series</t>
-  </si>
-  <si>
-    <t>Saint-Laurent-Du-Var, France</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/saint-laurent-du-var-beach-wrestling-world-series/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/world-championships-52/results</t>
   </si>
   <si>
@@ -832,12 +670,6 @@
     <t>Ufa, Russia</t>
   </si>
   <si>
-    <t>U20, U17</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-68/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/world-championships-54/results</t>
   </si>
   <si>
@@ -850,21 +682,6 @@
     <t>https://uww.org/event/isf-world-school-games/results</t>
   </si>
   <si>
-    <t>Katerini - Pierria, Greece</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/european-championships-42/results</t>
-  </si>
-  <si>
-    <t>Beach Wrestling World Championships</t>
-  </si>
-  <si>
-    <t>Constanta, Romania</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/beach-wrestling-world-championships-0/results</t>
-  </si>
-  <si>
     <t>Oslo, Norway</t>
   </si>
   <si>
@@ -877,21 +694,9 @@
     <t>https://uww.org/event/world-championships-56/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/world-championships-71/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/world-championships-57/results</t>
   </si>
   <si>
-    <t>Kharkiv, Ukraine</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-championships-70/results</t>
-  </si>
-  <si>
     <t>Grand Prix Moscow Alrosa Cup</t>
   </si>
   <si>
@@ -913,9 +718,6 @@
     <t>https://uww.org/event/european-championships-27/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/european-championships-49/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/european-championships-28/results</t>
   </si>
   <si>
@@ -994,9 +796,6 @@
     <t>https://uww.org/event/world-championships-60/results</t>
   </si>
   <si>
-    <t>https://uww.org/event/world-championships-77/results</t>
-  </si>
-  <si>
     <t>https://uww.org/event/world-championships-61/results</t>
   </si>
   <si>
@@ -1013,15 +812,6 @@
   </si>
   <si>
     <t>https://uww.org/event/world-championships-63/results</t>
-  </si>
-  <si>
-    <t>Coralville, United States</t>
-  </si>
-  <si>
-    <t>World Cup FS</t>
-  </si>
-  <si>
-    <t>https://uww.org/event/world-cup-fs/results</t>
   </si>
   <si>
     <t>Southeast Asian Wrestling Championships</t>
@@ -1404,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1383,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G8">
@@ -1602,22 +1392,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G9">
         <v>2018</v>
@@ -1625,22 +1415,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>2018</v>
@@ -1648,22 +1438,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>2018</v>
@@ -1671,22 +1461,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>2018</v>
@@ -1694,22 +1484,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>2018</v>
@@ -1717,22 +1507,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14">
         <v>2018</v>
@@ -1740,16 +1530,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1763,7 +1553,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
@@ -1772,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1786,22 +1576,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -1809,22 +1599,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -1832,22 +1622,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2018</v>
@@ -1855,22 +1645,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G20">
         <v>2018</v>
@@ -1878,22 +1668,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G21">
         <v>2018</v>
@@ -1901,10 +1691,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1913,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -1924,22 +1714,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -1947,22 +1737,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -1970,10 +1760,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -1982,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -1993,22 +1783,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -2016,22 +1806,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -2039,22 +1829,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>2018</v>
@@ -2062,19 +1852,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>100</v>
@@ -2085,19 +1875,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>102</v>
@@ -2108,22 +1898,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -2131,21 +1921,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G32">
@@ -2154,22 +1944,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33">
         <v>2018</v>
@@ -2177,22 +1967,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="G34">
         <v>2018</v>
@@ -2200,22 +1990,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
         <v>112</v>
       </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>114</v>
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="G35">
         <v>2018</v>
@@ -2223,19 +2013,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
         <v>117</v>
@@ -2246,22 +2036,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
         <v>118</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
         <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>120</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -2269,22 +2059,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
         <v>121</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="G38">
         <v>2018</v>
@@ -2292,21 +2082,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
         <v>124</v>
       </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>125</v>
       </c>
       <c r="G39">
@@ -2315,22 +2105,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G40">
         <v>2018</v>
@@ -2338,22 +2128,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G41">
         <v>2018</v>
@@ -2361,22 +2151,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -2384,25 +2174,25 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
         <v>135</v>
       </c>
       <c r="G43">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,111 +2200,111 @@
         <v>136</v>
       </c>
       <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" t="s">
-        <v>139</v>
-      </c>
       <c r="G44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
         <v>140</v>
       </c>
-      <c r="B45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>142</v>
-      </c>
       <c r="G45">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
       </c>
-      <c r="F46" t="s">
-        <v>144</v>
+      <c r="F46" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="G46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
       </c>
-      <c r="F47" t="s">
-        <v>147</v>
+      <c r="F47" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>149</v>
+        <v>25</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="G48">
         <v>2019</v>
@@ -2522,22 +2312,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G49">
         <v>2019</v>
@@ -2545,22 +2335,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G50">
         <v>2019</v>
@@ -2568,10 +2358,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -2583,7 +2373,7 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G51">
         <v>2019</v>
@@ -2591,22 +2381,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G52">
         <v>2019</v>
@@ -2614,22 +2404,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G53">
         <v>2019</v>
@@ -2637,22 +2427,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G54">
         <v>2019</v>
@@ -2660,22 +2450,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G55">
         <v>2019</v>
@@ -2683,22 +2473,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" t="s">
-        <v>168</v>
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G56">
         <v>2019</v>
@@ -2706,22 +2496,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G57">
         <v>2019</v>
@@ -2729,13 +2519,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
         <v>48</v>
       </c>
-      <c r="B58" t="s">
-        <v>146</v>
-      </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -2744,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G58">
         <v>2019</v>
@@ -2752,22 +2542,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G59">
         <v>2019</v>
@@ -2775,13 +2565,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -2790,7 +2580,7 @@
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G60">
         <v>2019</v>
@@ -2798,22 +2588,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" t="s">
-        <v>176</v>
+        <v>25</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="G61">
         <v>2019</v>
@@ -2821,22 +2611,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G62">
         <v>2019</v>
@@ -2844,22 +2634,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
         <v>177</v>
-      </c>
-      <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" t="s">
-        <v>180</v>
       </c>
       <c r="G63">
         <v>2019</v>
@@ -2867,82 +2657,82 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G64">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G65">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G66">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -2951,67 +2741,67 @@
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G67">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G68">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G69">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -3020,44 +2810,44 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G70">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
         <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G71">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -3066,90 +2856,90 @@
         <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G72">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G73">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
         <v>198</v>
       </c>
-      <c r="C74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>200</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F74" t="s">
-        <v>201</v>
-      </c>
       <c r="G74">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G75">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -3158,205 +2948,205 @@
         <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G76">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G77">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G78">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G79">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G80">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G81">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s">
         <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G82">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G83">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E84" t="s">
         <v>25</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G84">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -3365,182 +3155,182 @@
         <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G85">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
         <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G86">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G87">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G88">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G89">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G90">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
         <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G91">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F92" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G92">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -3549,44 +3339,44 @@
         <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G93">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -3595,21 +3385,21 @@
         <v>25</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G95">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -3618,21 +3408,21 @@
         <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G96">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -3641,44 +3431,44 @@
         <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G97">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G98">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -3687,67 +3477,67 @@
         <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E100" t="s">
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -3756,1113 +3546,331 @@
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E103" t="s">
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G103">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E104" t="s">
         <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="E105" t="s">
         <v>25</v>
       </c>
       <c r="F105" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
         <v>25</v>
       </c>
       <c r="F106" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
       </c>
       <c r="D108" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E109" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E111" t="s">
         <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B112" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F113" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>274</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E115" t="s">
         <v>25</v>
       </c>
       <c r="F115" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" t="s">
-        <v>277</v>
+        <v>25</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="G116">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>278</v>
-      </c>
-      <c r="B117" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" t="s">
-        <v>50</v>
-      </c>
-      <c r="D117" t="s">
-        <v>200</v>
-      </c>
-      <c r="E117" t="s">
-        <v>138</v>
-      </c>
-      <c r="F117" t="s">
-        <v>280</v>
-      </c>
-      <c r="G117">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" t="s">
-        <v>281</v>
-      </c>
-      <c r="C118" t="s">
-        <v>92</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" t="s">
-        <v>282</v>
-      </c>
-      <c r="G118">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D119" t="s">
-        <v>128</v>
-      </c>
-      <c r="E119" t="s">
-        <v>90</v>
-      </c>
-      <c r="F119" t="s">
-        <v>284</v>
-      </c>
-      <c r="G119">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>92</v>
-      </c>
-      <c r="B120" t="s">
-        <v>237</v>
-      </c>
-      <c r="C120" t="s">
-        <v>50</v>
-      </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>51</v>
-      </c>
-      <c r="F120" t="s">
-        <v>285</v>
-      </c>
-      <c r="G120">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" t="s">
-        <v>237</v>
-      </c>
-      <c r="C121" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" t="s">
-        <v>72</v>
-      </c>
-      <c r="E121" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" t="s">
-        <v>286</v>
-      </c>
-      <c r="G121">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" t="s">
-        <v>287</v>
-      </c>
-      <c r="C122" t="s">
-        <v>50</v>
-      </c>
-      <c r="D122" t="s">
-        <v>226</v>
-      </c>
-      <c r="E122" t="s">
-        <v>288</v>
-      </c>
-      <c r="F122" t="s">
-        <v>289</v>
-      </c>
-      <c r="G122">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>290</v>
-      </c>
-      <c r="B123" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>90</v>
-      </c>
-      <c r="F123" t="s">
-        <v>292</v>
-      </c>
-      <c r="G123">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>293</v>
-      </c>
-      <c r="B124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" t="s">
-        <v>294</v>
-      </c>
-      <c r="G124">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" t="s">
-        <v>72</v>
-      </c>
-      <c r="E125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G125">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" t="s">
-        <v>143</v>
-      </c>
-      <c r="C126" t="s">
-        <v>50</v>
-      </c>
-      <c r="D126" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" t="s">
-        <v>51</v>
-      </c>
-      <c r="F126" t="s">
-        <v>297</v>
-      </c>
-      <c r="G126">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" t="s">
-        <v>298</v>
-      </c>
-      <c r="G127">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" t="s">
-        <v>299</v>
-      </c>
-      <c r="G128">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>54</v>
-      </c>
-      <c r="B129" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" t="s">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" t="s">
-        <v>301</v>
-      </c>
-      <c r="G129">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" t="s">
-        <v>302</v>
-      </c>
-      <c r="C130" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" t="s">
-        <v>226</v>
-      </c>
-      <c r="E130" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" t="s">
-        <v>303</v>
-      </c>
-      <c r="G130">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>304</v>
-      </c>
-      <c r="B131" t="s">
-        <v>247</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" t="s">
-        <v>305</v>
-      </c>
-      <c r="G131">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" t="s">
-        <v>146</v>
-      </c>
-      <c r="C132" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" t="s">
-        <v>59</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132" t="s">
-        <v>306</v>
-      </c>
-      <c r="G132">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>35</v>
-      </c>
-      <c r="B133" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" t="s">
-        <v>307</v>
-      </c>
-      <c r="E133" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" t="s">
-        <v>308</v>
-      </c>
-      <c r="G133">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>224</v>
-      </c>
-      <c r="B134" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" t="s">
-        <v>309</v>
-      </c>
-      <c r="G134">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>54</v>
-      </c>
-      <c r="B135" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" t="s">
-        <v>59</v>
-      </c>
-      <c r="E135" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" t="s">
-        <v>310</v>
-      </c>
-      <c r="G135">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>48</v>
-      </c>
-      <c r="B136" t="s">
-        <v>108</v>
-      </c>
-      <c r="C136" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" t="s">
-        <v>311</v>
-      </c>
-      <c r="G136">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>35</v>
-      </c>
-      <c r="B137" t="s">
-        <v>312</v>
-      </c>
-      <c r="C137" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" t="s">
-        <v>313</v>
-      </c>
-      <c r="E137" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" t="s">
-        <v>314</v>
-      </c>
-      <c r="G137">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" t="s">
-        <v>257</v>
-      </c>
-      <c r="C138" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" t="s">
-        <v>99</v>
-      </c>
-      <c r="E138" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" t="s">
-        <v>315</v>
-      </c>
-      <c r="G138">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>316</v>
-      </c>
-      <c r="B139" t="s">
-        <v>317</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" t="s">
-        <v>318</v>
-      </c>
-      <c r="G139">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" t="s">
-        <v>81</v>
-      </c>
-      <c r="E140" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" t="s">
-        <v>319</v>
-      </c>
-      <c r="G140">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>92</v>
-      </c>
-      <c r="B141" t="s">
-        <v>108</v>
-      </c>
-      <c r="C141" t="s">
-        <v>92</v>
-      </c>
-      <c r="D141" t="s">
-        <v>59</v>
-      </c>
-      <c r="E141" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" t="s">
-        <v>320</v>
-      </c>
-      <c r="G141">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>44</v>
-      </c>
-      <c r="B142" t="s">
-        <v>321</v>
-      </c>
-      <c r="C142" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" t="s">
-        <v>322</v>
-      </c>
-      <c r="G142">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>92</v>
-      </c>
-      <c r="B143" t="s">
-        <v>193</v>
-      </c>
-      <c r="C143" t="s">
-        <v>92</v>
-      </c>
-      <c r="D143" t="s">
-        <v>99</v>
-      </c>
-      <c r="E143" t="s">
-        <v>25</v>
-      </c>
-      <c r="F143" t="s">
-        <v>323</v>
-      </c>
-      <c r="G143">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>92</v>
-      </c>
-      <c r="B144" t="s">
-        <v>279</v>
-      </c>
-      <c r="C144" t="s">
-        <v>50</v>
-      </c>
-      <c r="D144" t="s">
-        <v>270</v>
-      </c>
-      <c r="E144" t="s">
-        <v>138</v>
-      </c>
-      <c r="F144" t="s">
-        <v>324</v>
-      </c>
-      <c r="G144">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>92</v>
-      </c>
-      <c r="B145" t="s">
-        <v>237</v>
-      </c>
-      <c r="C145" t="s">
-        <v>92</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145" t="s">
-        <v>325</v>
-      </c>
-      <c r="G145">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>92</v>
-      </c>
-      <c r="B146" t="s">
-        <v>295</v>
-      </c>
-      <c r="C146" t="s">
-        <v>92</v>
-      </c>
-      <c r="D146" t="s">
-        <v>128</v>
-      </c>
-      <c r="E146" t="s">
-        <v>90</v>
-      </c>
-      <c r="F146" t="s">
-        <v>326</v>
-      </c>
-      <c r="G146">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>327</v>
-      </c>
-      <c r="B147" t="s">
-        <v>328</v>
-      </c>
-      <c r="C147" t="s">
-        <v>46</v>
-      </c>
-      <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" t="s">
-        <v>329</v>
-      </c>
-      <c r="G147">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B148" t="s">
-        <v>181</v>
-      </c>
-      <c r="C148" t="s">
-        <v>92</v>
-      </c>
-      <c r="D148" t="s">
-        <v>72</v>
-      </c>
-      <c r="E148" t="s">
-        <v>25</v>
-      </c>
-      <c r="F148" t="s">
-        <v>330</v>
-      </c>
-      <c r="G148">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>332</v>
-      </c>
-      <c r="B149" t="s">
-        <v>331</v>
-      </c>
-      <c r="C149" t="s">
-        <v>38</v>
-      </c>
-      <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" t="s">
-        <v>333</v>
-      </c>
-      <c r="G149">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>334</v>
-      </c>
-      <c r="B150" t="s">
-        <v>335</v>
-      </c>
-      <c r="C150" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150" t="s">
-        <v>336</v>
-      </c>
-      <c r="G150">
         <v>2022</v>
       </c>
     </row>
@@ -4871,8 +3879,18 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{A82A4206-399B-4507-B716-C72E91C1C2F4}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{A1ED97B0-0B60-4F09-B1FF-9C9A4E18B04F}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{3C8F347D-CA9F-490C-8213-A81CB320AF61}"/>
-    <hyperlink ref="F39" r:id="rId4" xr:uid="{EF06FA33-6786-41D4-A6C2-DF10F263CAA4}"/>
-    <hyperlink ref="F38" r:id="rId5" xr:uid="{EEBCDC13-F747-4DE9-B9DD-178A46626C97}"/>
+    <hyperlink ref="F35" r:id="rId4" xr:uid="{EF06FA33-6786-41D4-A6C2-DF10F263CAA4}"/>
+    <hyperlink ref="F34" r:id="rId5" xr:uid="{EEBCDC13-F747-4DE9-B9DD-178A46626C97}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{ADEFFBBB-6E71-41D5-BD70-23E692C719DA}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{1B1CDC27-2083-4CBB-87AE-15DBBC135AE4}"/>
+    <hyperlink ref="F31" r:id="rId8" xr:uid="{C7195C4A-FAEF-47FD-A294-63380420D5CC}"/>
+    <hyperlink ref="F32" r:id="rId9" xr:uid="{D2E36921-D5F8-4CFD-B2FC-F8F03372273A}"/>
+    <hyperlink ref="F46" r:id="rId10" xr:uid="{2696B7DC-056A-4D15-A00B-6A53CAE34FDC}"/>
+    <hyperlink ref="F47" r:id="rId11" xr:uid="{4BFF0159-9310-413D-8881-466F8768CAE0}"/>
+    <hyperlink ref="F48" r:id="rId12" xr:uid="{6E3E19C5-6FE1-484A-9F4E-C1DDF042866D}"/>
+    <hyperlink ref="F116" r:id="rId13" xr:uid="{7A29123E-4890-4BC8-8E20-194D42252243}"/>
+    <hyperlink ref="F61" r:id="rId14" xr:uid="{7B062950-F361-4611-9AB9-F4F8D590148A}"/>
+    <hyperlink ref="F56" r:id="rId15" xr:uid="{3F37A577-3985-4239-A4C1-86024AE46A51}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIEL\Desktop\wrestling_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9D20A-ED80-46AC-B4C8-B7A424F26B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE7FC1-87C6-455A-9A8A-7D2F5C15EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2464,7 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G55">
@@ -2510,7 +2510,7 @@
       <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G57">
@@ -3891,6 +3891,8 @@
     <hyperlink ref="F116" r:id="rId13" xr:uid="{7A29123E-4890-4BC8-8E20-194D42252243}"/>
     <hyperlink ref="F61" r:id="rId14" xr:uid="{7B062950-F361-4611-9AB9-F4F8D590148A}"/>
     <hyperlink ref="F56" r:id="rId15" xr:uid="{3F37A577-3985-4239-A4C1-86024AE46A51}"/>
+    <hyperlink ref="F55" r:id="rId16" xr:uid="{19F70462-35D8-4BB0-9F69-FB49124B0447}"/>
+    <hyperlink ref="F57" r:id="rId17" xr:uid="{4042D759-F035-46E4-BB65-DB5F38BAC02A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIEL\Desktop\wrestling_scraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elwin\data science academy\wrestling_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CE7FC1-87C6-455A-9A8A-7D2F5C15EA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="344">
   <si>
     <t>tournament_name</t>
   </si>
@@ -821,12 +820,243 @@
   </si>
   <si>
     <t>https://uww.org/event/southeast-asian-wrestling-championships/results</t>
+  </si>
+  <si>
+    <t>Zagreb Open</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/zagreb-open-0/results</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Ibrahim Moustafa</t>
+  </si>
+  <si>
+    <t>Alexandria, Egypt</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/ibrahim-moustafa-7/results</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-55/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-34/results</t>
+  </si>
+  <si>
+    <t>Astana, Kazakhstan</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/asian-championships-23/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-35/results</t>
+  </si>
+  <si>
+    <t>World Combat Games Qualifier</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-combat-games-qualifier/results</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-87/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/pan-american-championships-17/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/african-championships-6/results</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/african-championships-9/results</t>
+  </si>
+  <si>
+    <t>Kaba Uulu Kozhomkul &amp; Raatbek Sanatbaev</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/kaba-uulu-kozhomkul-raatbek-sanatbaev/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/asian-championships-24/results</t>
+  </si>
+  <si>
+    <t>Tirana, Albania</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-36/results</t>
+  </si>
+  <si>
+    <t>Seniors, U20, U17, U15, Veterans</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/asian-championships-33/results</t>
+  </si>
+  <si>
+    <t>Mexico City, Mexico</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/pan-american-championships-16/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/pan-american-championships-32/results</t>
+  </si>
+  <si>
+    <t>Santiago De Compostela, Spain</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-37/results</t>
+  </si>
+  <si>
+    <t>2nd African Beach Games</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/2nd-african-beach-games/results</t>
+  </si>
+  <si>
+    <t>Saint-Laurent-Du-Var, France</t>
+  </si>
+  <si>
+    <t>U20, U17</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-56/results</t>
+  </si>
+  <si>
+    <t>Saint-Laurent-Du-Var Beach Wrestling World Series</t>
+  </si>
+  <si>
+    <t>Beach Wrestling World Series</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/saint-laurent-du-var-beach-wrestling-world-series-1/results</t>
+  </si>
+  <si>
+    <t>Santiago, Chile</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/pan-american-championships-22/results</t>
+  </si>
+  <si>
+    <t>Kaposvar, Hungary</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/european-championships-48/results</t>
+  </si>
+  <si>
+    <t>Amman City, Jordan</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/asian-championships-25/results</t>
+  </si>
+  <si>
+    <t>Polyák Imre &amp; Varga János Memorial</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/polyak-imre-varga-janos-memorial/results</t>
+  </si>
+  <si>
+    <t>Jeux De La Francophonie</t>
+  </si>
+  <si>
+    <t>Kinshasa, Congo</t>
+  </si>
+  <si>
+    <t>FS, WW, AF</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/jeux-de-la-francophonie/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-53/results</t>
+  </si>
+  <si>
+    <t>Canberra, Australia</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/oceania-championships-3/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-65/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-85/results</t>
+  </si>
+  <si>
+    <t>11th Indian Ocean Islands Games</t>
+  </si>
+  <si>
+    <t>Antananarivo, Madagascar</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/11th-indian-ocean-islands-games/results</t>
+  </si>
+  <si>
+    <t>Constanta, Romania</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-50/results</t>
+  </si>
+  <si>
+    <t>3rd Mediterranean Beach Games</t>
+  </si>
+  <si>
+    <t>Heraklion, Greece</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/3rd-mediterranean-beach-games/results</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-45/results</t>
+  </si>
+  <si>
+    <t>Hangzhou, China</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/asian-games-0/results</t>
+  </si>
+  <si>
+    <t>U15, Veterans</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/world-championships-49/results</t>
+  </si>
+  <si>
+    <t>Veterans World Championships</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/veterans-world-championships/results</t>
+  </si>
+  <si>
+    <t>U23 World Championships</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/u23-world-championships/results</t>
+  </si>
+  <si>
+    <t>Arab Championship</t>
+  </si>
+  <si>
+    <t>Baghdad, Iraq</t>
+  </si>
+  <si>
+    <t>https://uww.org/event/arab-championship-10/results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -893,8 +1123,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1193,20 +1423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1482,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1505,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1528,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1551,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1597,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1620,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1413,7 +1643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1666,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1459,7 +1689,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1482,7 +1712,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1505,7 +1735,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1528,7 +1758,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1551,7 +1781,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1574,7 +1804,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1597,7 +1827,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1620,7 +1850,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1643,7 +1873,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1666,7 +1896,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1689,7 +1919,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1712,7 +1942,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1735,7 +1965,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1758,7 +1988,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1781,7 +2011,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +2034,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -1827,7 +2057,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -1850,7 +2080,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1873,7 +2103,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +2126,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +2149,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1942,7 +2172,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -1965,7 +2195,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1988,7 +2218,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -2011,7 +2241,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2034,7 +2264,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2057,7 +2287,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -2080,7 +2310,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -2103,7 +2333,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -2126,7 +2356,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -2149,7 +2379,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -2172,7 +2402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
@@ -2195,7 +2425,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2218,7 +2448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2241,7 +2471,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2264,7 +2494,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2287,7 +2517,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2310,7 +2540,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2333,7 +2563,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2356,7 +2586,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2379,7 +2609,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -2402,7 +2632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2425,7 +2655,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2678,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -2464,14 +2694,14 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>158</v>
       </c>
       <c r="G55">
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -2494,7 +2724,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -2510,14 +2740,14 @@
       <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>162</v>
       </c>
       <c r="G57">
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2540,7 +2770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -2563,7 +2793,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -2586,7 +2816,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -2609,7 +2839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -2632,7 +2862,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2655,7 +2885,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -2678,7 +2908,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2931,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -2724,7 +2954,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -2747,7 +2977,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -2770,7 +3000,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -2793,7 +3023,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -2816,7 +3046,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -2839,7 +3069,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>192</v>
       </c>
@@ -2862,7 +3092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -2885,7 +3115,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -2908,7 +3138,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -2931,7 +3161,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -2954,7 +3184,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -2977,7 +3207,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -3000,7 +3230,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -3023,7 +3253,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -3046,7 +3276,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -3069,7 +3299,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -3092,7 +3322,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3345,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -3138,7 +3368,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>213</v>
       </c>
@@ -3161,7 +3391,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3184,7 +3414,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -3207,7 +3437,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -3230,7 +3460,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -3253,7 +3483,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -3276,7 +3506,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -3299,7 +3529,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>225</v>
       </c>
@@ -3322,7 +3552,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>228</v>
       </c>
@@ -3345,7 +3575,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>43</v>
       </c>
@@ -3368,7 +3598,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>43</v>
       </c>
@@ -3391,7 +3621,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -3414,7 +3644,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -3437,7 +3667,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -3460,7 +3690,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>238</v>
       </c>
@@ -3483,7 +3713,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -3506,7 +3736,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +3759,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>178</v>
       </c>
@@ -3552,7 +3782,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -3575,7 +3805,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -3598,7 +3828,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3851,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -3644,7 +3874,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>250</v>
       </c>
@@ -3667,7 +3897,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -3690,7 +3920,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -3713,7 +3943,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3966,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>85</v>
       </c>
@@ -3759,7 +3989,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -3782,7 +4012,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -3805,7 +4035,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>260</v>
       </c>
@@ -3828,7 +4058,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -3851,7 +4081,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -3874,25 +4104,920 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>267</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>268</v>
+      </c>
+      <c r="G117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" t="s">
+        <v>272</v>
+      </c>
+      <c r="G118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" t="s">
+        <v>132</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" t="s">
+        <v>275</v>
+      </c>
+      <c r="G120" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>35</v>
+      </c>
+      <c r="B121" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" t="s">
+        <v>277</v>
+      </c>
+      <c r="G121" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>278</v>
+      </c>
+      <c r="G122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>273</v>
+      </c>
+      <c r="F123" t="s">
+        <v>280</v>
+      </c>
+      <c r="G123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>281</v>
+      </c>
+      <c r="F124" t="s">
+        <v>282</v>
+      </c>
+      <c r="G124" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>283</v>
+      </c>
+      <c r="G125" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" t="s">
+        <v>180</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" t="s">
+        <v>284</v>
+      </c>
+      <c r="G126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>285</v>
+      </c>
+      <c r="F127" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>289</v>
+      </c>
+      <c r="G129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>291</v>
+      </c>
+      <c r="G130" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" t="s">
+        <v>276</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>292</v>
+      </c>
+      <c r="E131" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" t="s">
+        <v>293</v>
+      </c>
+      <c r="G131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" t="s">
+        <v>295</v>
+      </c>
+      <c r="G132" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" t="s">
+        <v>285</v>
+      </c>
+      <c r="F133" t="s">
+        <v>296</v>
+      </c>
+      <c r="G133" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>92</v>
+      </c>
+      <c r="E134" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134" t="s">
+        <v>298</v>
+      </c>
+      <c r="G134" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="s">
+        <v>285</v>
+      </c>
+      <c r="F135" t="s">
+        <v>300</v>
+      </c>
+      <c r="G135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" t="s">
+        <v>302</v>
+      </c>
+      <c r="E136" t="s">
+        <v>285</v>
+      </c>
+      <c r="F136" t="s">
+        <v>303</v>
+      </c>
+      <c r="G136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137" t="s">
+        <v>306</v>
+      </c>
+      <c r="G137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" t="s">
+        <v>92</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" t="s">
+        <v>308</v>
+      </c>
+      <c r="G138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>74</v>
+      </c>
+      <c r="E139" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
+        <v>247</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140" t="s">
+        <v>312</v>
+      </c>
+      <c r="G140" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>313</v>
+      </c>
+      <c r="B141" t="s">
+        <v>129</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141" t="s">
+        <v>314</v>
+      </c>
+      <c r="G141" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="s">
+        <v>317</v>
+      </c>
+      <c r="F142" t="s">
+        <v>318</v>
+      </c>
+      <c r="G142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>85</v>
+      </c>
+      <c r="B143" t="s">
+        <v>64</v>
+      </c>
+      <c r="C143" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" t="s">
+        <v>319</v>
+      </c>
+      <c r="G143" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>180</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" t="s">
+        <v>321</v>
+      </c>
+      <c r="G144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>85</v>
+      </c>
+      <c r="B145" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145" t="s">
+        <v>92</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" t="s">
+        <v>322</v>
+      </c>
+      <c r="G145" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" t="s">
+        <v>109</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" t="s">
+        <v>273</v>
+      </c>
+      <c r="F146" t="s">
+        <v>323</v>
+      </c>
+      <c r="G146" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>326</v>
+      </c>
+      <c r="G147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>85</v>
+      </c>
+      <c r="B148" t="s">
+        <v>327</v>
+      </c>
+      <c r="C148" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" t="s">
+        <v>285</v>
+      </c>
+      <c r="F148" t="s">
+        <v>328</v>
+      </c>
+      <c r="G148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>329</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>285</v>
+      </c>
+      <c r="F149" t="s">
+        <v>331</v>
+      </c>
+      <c r="G149" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" t="s">
+        <v>85</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" t="s">
+        <v>333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" t="s">
+        <v>334</v>
+      </c>
+      <c r="G151" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>85</v>
+      </c>
+      <c r="B152" t="s">
+        <v>222</v>
+      </c>
+      <c r="C152" t="s">
+        <v>85</v>
+      </c>
+      <c r="D152" t="s">
+        <v>335</v>
+      </c>
+      <c r="E152" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" t="s">
+        <v>336</v>
+      </c>
+      <c r="G152" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>337</v>
+      </c>
+      <c r="B153" t="s">
+        <v>222</v>
+      </c>
+      <c r="C153" t="s">
+        <v>85</v>
+      </c>
+      <c r="D153" t="s">
+        <v>118</v>
+      </c>
+      <c r="E153" t="s">
+        <v>83</v>
+      </c>
+      <c r="F153" t="s">
+        <v>338</v>
+      </c>
+      <c r="G153" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>339</v>
+      </c>
+      <c r="B154" t="s">
+        <v>290</v>
+      </c>
+      <c r="C154" t="s">
+        <v>85</v>
+      </c>
+      <c r="D154" t="s">
+        <v>65</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" t="s">
+        <v>340</v>
+      </c>
+      <c r="G154" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>341</v>
+      </c>
+      <c r="B155" t="s">
+        <v>342</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>83</v>
+      </c>
+      <c r="F155" t="s">
+        <v>343</v>
+      </c>
+      <c r="G155" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A82A4206-399B-4507-B716-C72E91C1C2F4}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{A1ED97B0-0B60-4F09-B1FF-9C9A4E18B04F}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{3C8F347D-CA9F-490C-8213-A81CB320AF61}"/>
-    <hyperlink ref="F35" r:id="rId4" xr:uid="{EF06FA33-6786-41D4-A6C2-DF10F263CAA4}"/>
-    <hyperlink ref="F34" r:id="rId5" xr:uid="{EEBCDC13-F747-4DE9-B9DD-178A46626C97}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{ADEFFBBB-6E71-41D5-BD70-23E692C719DA}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{1B1CDC27-2083-4CBB-87AE-15DBBC135AE4}"/>
-    <hyperlink ref="F31" r:id="rId8" xr:uid="{C7195C4A-FAEF-47FD-A294-63380420D5CC}"/>
-    <hyperlink ref="F32" r:id="rId9" xr:uid="{D2E36921-D5F8-4CFD-B2FC-F8F03372273A}"/>
-    <hyperlink ref="F46" r:id="rId10" xr:uid="{2696B7DC-056A-4D15-A00B-6A53CAE34FDC}"/>
-    <hyperlink ref="F47" r:id="rId11" xr:uid="{4BFF0159-9310-413D-8881-466F8768CAE0}"/>
-    <hyperlink ref="F48" r:id="rId12" xr:uid="{6E3E19C5-6FE1-484A-9F4E-C1DDF042866D}"/>
-    <hyperlink ref="F116" r:id="rId13" xr:uid="{7A29123E-4890-4BC8-8E20-194D42252243}"/>
-    <hyperlink ref="F61" r:id="rId14" xr:uid="{7B062950-F361-4611-9AB9-F4F8D590148A}"/>
-    <hyperlink ref="F56" r:id="rId15" xr:uid="{3F37A577-3985-4239-A4C1-86024AE46A51}"/>
-    <hyperlink ref="F55" r:id="rId16" xr:uid="{19F70462-35D8-4BB0-9F69-FB49124B0447}"/>
-    <hyperlink ref="F57" r:id="rId17" xr:uid="{4042D759-F035-46E4-BB65-DB5F38BAC02A}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F35" r:id="rId4"/>
+    <hyperlink ref="F34" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F31" r:id="rId8"/>
+    <hyperlink ref="F32" r:id="rId9"/>
+    <hyperlink ref="F46" r:id="rId10"/>
+    <hyperlink ref="F47" r:id="rId11"/>
+    <hyperlink ref="F48" r:id="rId12"/>
+    <hyperlink ref="F116" r:id="rId13"/>
+    <hyperlink ref="F61" r:id="rId14"/>
+    <hyperlink ref="F56" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
